--- a/resources/templates/ebom_template.xlsx
+++ b/resources/templates/ebom_template.xlsx
@@ -3,19 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6938F6B0-1A49-44EA-9732-601166E97EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834916C-1392-4D8A-93D4-85B8355861EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="3924" windowWidth="20340" windowHeight="8316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>FUJIN PRECISION INDUSTRY(SHENZHEN) CO.,LTD</t>
   </si>
@@ -105,6 +118,18 @@
   </si>
   <si>
     <t>Comp Approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{M_CCL}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{TOTAL_QTY}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total:      </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,8 +139,8 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
       </rPr>
       <t>{{PROJECT_CODE}}</t>
     </r>
@@ -128,8 +153,8 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
       </rPr>
       <t>{{SCH_VERSION}}</t>
     </r>
@@ -142,8 +167,8 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
       </rPr>
       <t>{{PCB_VERSION}}</t>
     </r>
@@ -151,13 +176,41 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PCA PN: </t>
+      <t xml:space="preserve">BOM Version: </t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>{{BOM_VERSION}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Phase:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {{PHASE}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PCA PN: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
       </rPr>
       <t>{{PCA_PN}}</t>
     </r>
@@ -165,48 +218,16 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">BOM Version: </t>
+      <t xml:space="preserve">Date: </t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>{{BOM_VERSION}}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Date: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
       </rPr>
       <t>{{BOM_DATE}}</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Phase:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> {{PHASE}}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{M_CCL}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,8 +238,8 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
       </rPr>
       <t>{{DESCRIPTION}}</t>
     </r>
@@ -229,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,53 +266,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Cascadia Mono ExtraLight"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -314,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -337,32 +370,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,13 +787,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
@@ -726,7 +803,7 @@
     <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
@@ -734,190 +811,209 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="8"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
